--- a/biology/Zoologie/Agathidinae/Agathidinae.xlsx
+++ b/biology/Zoologie/Agathidinae/Agathidinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Agathidinae sont une sous-famille de guêpes parasitoïdes de la famille des Braconidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces sont utilisées comme contrôle biologique[1].
-Ils font partie des braconides les plus grands et les plus colorés. Les membres diurnes de la sous-famille ont des couleurs frappantes et aposématiques pour alerter les prédateurs. Certaines espèces sont nocturnes, avec des colorations pâles et de grands ocelles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces sont utilisées comme contrôle biologique.
+Ils font partie des braconides les plus grands et les plus colorés. Les membres diurnes de la sous-famille ont des couleurs frappantes et aposématiques pour alerter les prédateurs. Certaines espèces sont nocturnes, avec des colorations pâles et de grands ocelles.
 On les trouve dans le monde entier, mais ils sont plus diversifiés sous les tropiques.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les Agathidinae sont des endoparasitoïdes des chenilles. La plupart ont tendance à attaquer les chenilles cachées, comme celles qui attachent les feuilles des plantes. Ils sont généralement solitaires et déposent un seul œuf dans chaque chenille.
 </t>
@@ -575,7 +591,9 @@
           <t>Tribus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agathidini Haliday, 1833
@@ -610,9 +628,11 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Environ 2 000 espèces dans 40 genres. Les genres incluent[3],[4] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 2 000 espèces dans 40 genres. Les genres incluent, : 
 Agathirsia
 Agathis
 Aerophilus
@@ -655,7 +675,43 @@
 Zacremnops
 Zamicrodus
 Zelomorpha
-Genres non classés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agathidinae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agathidinae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genres non classés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Orgiloneura Ashmead, 1900
 Platyagathis Turner, 1918
 Rhamphagathis Tobias, 1962
